--- a/biology/Botanique/Menodora_scabra/Menodora_scabra.xlsx
+++ b/biology/Botanique/Menodora_scabra/Menodora_scabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Menodora scabra est une espèce végétale de la famille des Oleaceae.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante d'une trentaine de centimètres de hauteur est formée de nombreuses tiges dressées, portant des feuilles elles-mêmes dressées, lancéolées, de 1,3 à 3,8 cm de longueur[1].
-Appareil reproducteur
-La floraison a lieu entre mars et septembre.
-L'inflorescence est une grappe lâche de fleurs jaune pâle. Chaque fleur mesure 1,3 à 2 cm de diamètre. La corolle à 5 pétales débute par un tube court et étroit formé par la base soudée des pétales, et s'achève par 5 lobes libres. Il y a deux étamines[1].
-Le fruit est une capsule formée de deux loges translucides accolées, chacune faisant environ 6 mm de largeur[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante d'une trentaine de centimètres de hauteur est formée de nombreuses tiges dressées, portant des feuilles elles-mêmes dressées, lancéolées, de 1,3 à 3,8 cm de longueur.
 </t>
         </is>
       </c>
@@ -544,13 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante vit dans le sud-ouest des États-Unis et au nord du Mexique. Sa limite nord va de la Californie et l'Utah jusqu'au Texas.
-Elle pousse sur les pentes arides ou sur les replats désertiques couverts de buissons.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et septembre.
+L'inflorescence est une grappe lâche de fleurs jaune pâle. Chaque fleur mesure 1,3 à 2 cm de diamètre. La corolle à 5 pétales débute par un tube court et étroit formé par la base soudée des pétales, et s'achève par 5 lobes libres. Il y a deux étamines.
+Le fruit est une capsule formée de deux loges translucides accolées, chacune faisant environ 6 mm de largeur.
 </t>
         </is>
       </c>
@@ -576,10 +596,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante vit dans le sud-ouest des États-Unis et au nord du Mexique. Sa limite nord va de la Californie et l'Utah jusqu'au Texas.
+Elle pousse sur les pentes arides ou sur les replats désertiques couverts de buissons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Menodora_scabra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Menodora_scabra</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
